--- a/wpcexcel.xlsx
+++ b/wpcexcel.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A632A0A6-2027-405A-AF8C-4520BACDE0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7549DC21-360F-4296-8A08-2A509A6A9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="285" windowWidth="19190" windowHeight="9795" activeTab="1" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
+    <workbookView xWindow="10" yWindow="285" windowWidth="19190" windowHeight="9795" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="WPC4 Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="WPC4 Divisions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Game#</t>
   </si>
@@ -193,6 +192,9 @@
   </si>
   <si>
     <t>Texan Riders</t>
+  </si>
+  <si>
+    <t>WPC4 Divisions</t>
   </si>
 </sst>
 </file>
@@ -257,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,6 +282,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -295,17 +317,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,18 +643,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0432AA-CECE-4EC9-81D0-248080DFB752}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,8 +681,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -684,8 +712,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -711,8 +745,14 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -738,8 +778,14 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -765,8 +811,14 @@
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -792,8 +844,14 @@
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -819,8 +877,14 @@
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -846,8 +910,14 @@
       <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -873,8 +943,14 @@
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -900,8 +976,14 @@
       <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -927,8 +1009,14 @@
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -954,8 +1042,12 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="J12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -982,7 +1074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1009,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1036,7 +1128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1118,144 +1210,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D96CBB-32A7-4D3D-AA91-A4149C7E4340}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="34.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wpcexcel.xlsx
+++ b/wpcexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7549DC21-360F-4296-8A08-2A509A6A9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA7142-5A03-437F-91A8-114690C779E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="285" windowWidth="19190" windowHeight="9795" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
   <si>
     <t>Game#</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>WPC4 Divisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -329,6 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,20 +647,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0432AA-CECE-4EC9-81D0-248080DFB752}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I1" sqref="I1:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="6.58984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,12 +685,27 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -712,14 +731,29 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -745,14 +779,29 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -778,14 +827,29 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -811,14 +875,29 @@
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -844,14 +923,29 @@
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -877,14 +971,29 @@
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -910,14 +1019,29 @@
       <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -943,14 +1067,29 @@
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -976,14 +1115,29 @@
       <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1009,14 +1163,29 @@
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="O11" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1042,12 +1211,27 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1073,8 +1257,23 @@
       <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="I13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1100,8 +1299,23 @@
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="I14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1127,8 +1341,23 @@
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="I15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1154,8 +1383,23 @@
       <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1181,8 +1425,23 @@
       <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1208,10 +1467,25 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="I18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wpcexcel.xlsx
+++ b/wpcexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA7142-5A03-437F-91A8-114690C779E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12FC86-AC43-4E25-907D-C87500810D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="285" windowWidth="19190" windowHeight="9795" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="WPC4 Schedule" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="56">
   <si>
     <t>Game#</t>
   </si>
@@ -198,13 +198,19 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>POLO 2</t>
+  </si>
+  <si>
+    <t>Trinity Cricket Ground</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +243,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -326,13 +346,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,15 +670,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0432AA-CECE-4EC9-81D0-248080DFB752}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M18"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -685,25 +709,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="I1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
@@ -716,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D18" si="0">TEXT(E2, "dddd")</f>
+        <f t="shared" ref="D2:D21" si="0">TEXT(E2, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="E2" s="4">
@@ -731,19 +755,19 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="I2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N2" s="10" t="s">
@@ -779,19 +803,19 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="14" t="s">
+      <c r="I3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -827,19 +851,19 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="I4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -875,19 +899,19 @@
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N5" s="11" t="s">
@@ -923,19 +947,19 @@
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="I6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -971,19 +995,19 @@
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="I7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N7" s="11" t="s">
@@ -1019,19 +1043,19 @@
       <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="I8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N8" s="11" t="s">
@@ -1067,19 +1091,19 @@
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="14" t="s">
+      <c r="I9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N9" s="11" t="s">
@@ -1115,19 +1139,19 @@
       <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="14" t="s">
+      <c r="I10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N10" s="11" t="s">
@@ -1163,19 +1187,19 @@
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="14" t="s">
+      <c r="I11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N11" s="11" t="s">
@@ -1211,19 +1235,19 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="14" t="s">
+      <c r="I12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N12" s="11" t="s">
@@ -1257,19 +1281,19 @@
       <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="I13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1299,19 +1323,19 @@
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="14" t="s">
+      <c r="I14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1341,19 +1365,19 @@
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="14" t="s">
+      <c r="I15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1383,19 +1407,19 @@
       <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="I16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1425,19 +1449,19 @@
       <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="14" t="s">
+      <c r="I17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1467,20 +1491,371 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>53</v>
+      <c r="I18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E19" s="8">
+        <v>45332</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E20" s="8">
+        <v>45332</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E21" s="8">
+        <v>45332</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>TEXT(E22, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E22" s="8">
+        <v>45333</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>TEXT(E23, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E23" s="8">
+        <v>45333</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>TEXT(E24, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45339</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>TEXT(E25, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45339</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>TEXT(E26, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45339</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>TEXT(E27, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45339</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>TEXT(E28, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E28" s="8">
+        <v>45346</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>TEXT(E29, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E29" s="8">
+        <v>45346</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>TEXT(E30, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E30" s="8">
+        <v>45347</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>TEXT(E31, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E31" s="8">
+        <v>45347</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/wpcexcel.xlsx
+++ b/wpcexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12FC86-AC43-4E25-907D-C87500810D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E90425-63E5-4757-ADD5-3B26CC10C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,15 +347,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0432AA-CECE-4EC9-81D0-248080DFB752}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -724,10 +725,10 @@
       <c r="M1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="14"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
@@ -1511,10 +1512,10 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="2" t="str">
@@ -1538,10 +1539,10 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="str">
@@ -1565,10 +1566,10 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2" t="str">
@@ -1592,14 +1593,14 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>19</v>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>TEXT(E22, "dddd")</f>
+        <f t="shared" ref="D22:D31" si="1">TEXT(E22, "dddd")</f>
         <v>Sunday</v>
       </c>
       <c r="E22" s="8">
@@ -1619,14 +1620,14 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
+      <c r="B23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>TEXT(E23, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="E23" s="8">
@@ -1643,17 +1644,17 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>TEXT(E24, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="E24" s="4">
@@ -1670,7 +1671,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1680,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>TEXT(E25, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="E25" s="4">
@@ -1697,7 +1698,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1707,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>TEXT(E26, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="E26" s="4">
@@ -1724,7 +1725,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A27" s="17">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1734,7 +1735,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>TEXT(E27, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="E27" s="4">
@@ -1754,14 +1755,14 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>TEXT(E28, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="E28" s="8">
@@ -1781,14 +1782,14 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>TEXT(E29, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="E29" s="8">
@@ -1815,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>TEXT(E30, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="E30" s="8">
@@ -1835,14 +1836,14 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>TEXT(E31, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="E31" s="8">

--- a/wpcexcel.xlsx
+++ b/wpcexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\OneDrive\Desktop\DCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E90425-63E5-4757-ADD5-3B26CC10C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB426A-02DA-421D-B9D0-B06E211FB779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
+    <workbookView xWindow="10" yWindow="285" windowWidth="19190" windowHeight="9795" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="WPC4 Schedule" sheetId="1" r:id="rId1"/>
@@ -350,13 +350,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,9 +375,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -415,7 +415,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -521,7 +521,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -663,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,13 +673,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0432AA-CECE-4EC9-81D0-248080DFB752}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
@@ -725,10 +726,10 @@
       <c r="M1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="17"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
@@ -1620,10 +1621,10 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="str">
@@ -1783,10 +1784,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="1"/>

--- a/wpcexcel.xlsx
+++ b/wpcexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\OneDrive\Desktop\DCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB426A-02DA-421D-B9D0-B06E211FB779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9651FCB-A4BF-4DB3-B454-CDAD478E25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="285" windowWidth="19190" windowHeight="9795" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="WPC4 Schedule" sheetId="1" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0432AA-CECE-4EC9-81D0-248080DFB752}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1676,10 +1676,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1865,5 +1865,6 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wpcexcel.xlsx
+++ b/wpcexcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salok\OneDrive\Desktop\DCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f263187d8075daf8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9651FCB-A4BF-4DB3-B454-CDAD478E25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E127B98-A991-4410-9D3F-5430CE427763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F873CC0-8977-4D64-A12B-DF9164C7129F}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{DEE40554-1D7D-4AA9-B6D8-2431CA869EE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
   <si>
     <t>Game#</t>
   </si>
@@ -204,13 +204,34 @@
   </si>
   <si>
     <t>Trinity Cricket Ground</t>
+  </si>
+  <si>
+    <t>11 AM - 3 PM</t>
+  </si>
+  <si>
+    <t>3 PM - 6 PM</t>
+  </si>
+  <si>
+    <t>11:45 AM - 3:30 PM</t>
+  </si>
+  <si>
+    <t>8 AM - 11:45 AM</t>
+  </si>
+  <si>
+    <t>12 PM - 4 PM</t>
+  </si>
+  <si>
+    <t>Flower Mound</t>
+  </si>
+  <si>
+    <t>3:30 PM - 7:15 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,41 +249,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +280,116 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE818E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FE41C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B4BE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF988768"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -325,21 +432,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,16 +472,41 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,9 +525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -415,7 +565,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -521,7 +671,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -663,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0432AA-CECE-4EC9-81D0-248080DFB752}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -711,41 +861,41 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="I1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="18"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D21" si="0">TEXT(E2, "dddd")</f>
+        <f>TEXT(E2, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="12">
         <v>45297</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -754,28 +904,28 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -783,47 +933,47 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>TEXT(E3, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45305</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45304</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="I3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -831,47 +981,47 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>TEXT(E4, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="E4" s="8">
-        <v>45305</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="12">
+        <v>45312</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -879,18 +1029,18 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45312</v>
+        <f>TEXT(E5, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45318</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
@@ -898,28 +1048,28 @@
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="H5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -927,18 +1077,18 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45312</v>
+        <f>TEXT(E6, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45318</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -946,28 +1096,28 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="H6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -975,18 +1125,18 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45318</v>
+        <f>TEXT(E7, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45319</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
@@ -995,27 +1145,27 @@
         <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1023,18 +1173,18 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
+      <c r="B8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45318</v>
+        <f>TEXT(E8, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45319</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -1042,28 +1192,28 @@
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="H8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1071,47 +1221,47 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
+      <c r="B9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(E9, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="12">
         <v>45319</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1119,47 +1269,47 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45319</v>
+        <f>TEXT(E10, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45325</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1167,47 +1317,47 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45319</v>
+        <f>TEXT(E11, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E11" s="12">
+        <v>45325</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1215,87 +1365,87 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
+      <c r="B12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45319</v>
+        <f>TEXT(E12, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E12" s="12">
+        <v>45325</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A13" s="2">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>15</v>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E13" s="4">
-        <v>45325</v>
+        <f>TEXT(E13, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E13" s="12">
+        <v>45326</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1303,41 +1453,41 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
+      <c r="B14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(E14, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="E14" s="4">
-        <v>45325</v>
+      <c r="E14" s="12">
+        <v>45332</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1345,41 +1495,41 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>17</v>
+      <c r="B15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(E15, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="E15" s="4">
-        <v>45325</v>
+      <c r="E15" s="12">
+        <v>45332</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1387,41 +1537,41 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
+      <c r="B16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(E16, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="E16" s="4">
-        <v>45325</v>
+      <c r="E16" s="12">
+        <v>45332</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="I16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1429,18 +1579,18 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
+      <c r="B17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(E17, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="E17" s="4">
-        <v>45326</v>
+      <c r="E17" s="12">
+        <v>45333</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1448,22 +1598,22 @@
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="H17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1471,141 +1621,141 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>TEXT(E18, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45339</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>TEXT(E19, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E19" s="12">
+        <v>45339</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>TEXT(E20, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E20" s="12">
+        <v>45339</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="E18" s="4">
-        <v>45326</v>
-      </c>
-      <c r="F18" s="2" t="s">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A21" s="26">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>TEXT(E21, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E21" s="12">
+        <v>45339</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E19" s="8">
-        <v>45332</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E20" s="8">
-        <v>45332</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E21" s="8">
-        <v>45332</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
+      <c r="H21" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="C22" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" ref="D22:D31" si="1">TEXT(E22, "dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="E22" s="8">
-        <v>45333</v>
+        <f>TEXT(E22, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E22" s="12">
+        <v>45346</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1614,250 +1764,412 @@
         <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>TEXT(E23, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E23" s="12">
+        <v>45347</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>TEXT(E24, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E24" s="12">
+        <v>45347</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="30" t="str">
+        <f>TEXT(E25, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E25" s="31">
+        <v>45353</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A26" s="26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="30" t="str">
+        <f>TEXT(E26, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E26" s="31">
+        <v>45353</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="E23" s="8">
-        <v>45333</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="2" t="s">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="30" t="str">
+        <f>TEXT(E27, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E27" s="31">
+        <v>45360</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A24" s="15">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45339</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A25" s="15">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E25" s="4">
-        <v>45339</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" s="15">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45339</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A27" s="15">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45339</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="30" t="str">
+        <f>TEXT(E28, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="E28" s="8">
-        <v>45346</v>
+      <c r="E28" s="34">
+        <v>45367</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="30" t="str">
+        <f>TEXT(E29, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="E29" s="8">
-        <v>45346</v>
+      <c r="E29" s="34">
+        <v>45367</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="D30" s="30" t="str">
+        <f>TEXT(E30, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="E30" s="8">
-        <v>45347</v>
+      <c r="E30" s="34">
+        <v>45368</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="30" t="str">
+        <f>TEXT(E31, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E31" s="34">
+        <v>45374</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A32" s="37">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="30" t="str">
+        <f>TEXT(E32, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="E31" s="8">
-        <v>45347</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="E32" s="34">
+        <v>45375</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
+      <c r="H32" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="30" t="str">
+        <f>TEXT(E33, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E33" s="34">
+        <v>45375</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="30" t="str">
+        <f>TEXT(E34, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E34" s="34">
+        <v>45375</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="30" t="str">
+        <f>TEXT(E35, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E35" s="34">
+        <v>45381</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="30" t="str">
+        <f>TEXT(E36, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E36" s="34">
+        <v>45382</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="30" t="str">
+        <f>TEXT(E37, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E37" s="34">
+        <v>45388</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
